--- a/Organizacion.xlsx
+++ b/Organizacion.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\GitHub\SistCoopEE_App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="240">
   <si>
     <t>Lima</t>
   </si>
@@ -93,6 +89,657 @@
   </si>
   <si>
     <t>RUC</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>9, 10, 11, 12</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>17, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>21, 22, 23, 24, 25</t>
+  </si>
+  <si>
+    <t>jacarmen_caja</t>
+  </si>
+  <si>
+    <t>jacarmen_caja, pmpetronila_caja, dcyrene_caja, qpandres_caja</t>
+  </si>
+  <si>
+    <t>pmpetronila_caja</t>
+  </si>
+  <si>
+    <t>dcyrene_caja</t>
+  </si>
+  <si>
+    <t>qpandres_caja</t>
+  </si>
+  <si>
+    <t>vpwalter_caja</t>
+  </si>
+  <si>
+    <t>ptfilomeno_caja</t>
+  </si>
+  <si>
+    <t>hgfeliciano_caja</t>
+  </si>
+  <si>
+    <t>aobenito_caja</t>
+  </si>
+  <si>
+    <t>tmenma_caja</t>
+  </si>
+  <si>
+    <t>ffoctavio_caja</t>
+  </si>
+  <si>
+    <t>qlcarlos_caja</t>
+  </si>
+  <si>
+    <t>bcvictor_caja</t>
+  </si>
+  <si>
+    <t>pvmarciana_caja</t>
+  </si>
+  <si>
+    <t>vateofila_caja</t>
+  </si>
+  <si>
+    <t>arisaac_caja</t>
+  </si>
+  <si>
+    <t>jafrancisco_caja</t>
+  </si>
+  <si>
+    <t>cmrosa_caja</t>
+  </si>
+  <si>
+    <t>ormacelino_caja</t>
+  </si>
+  <si>
+    <t>cssocorro_caja</t>
+  </si>
+  <si>
+    <t>cojulio_caja</t>
+  </si>
+  <si>
+    <t>alnemesio_caja</t>
+  </si>
+  <si>
+    <t>hafrancisco_caja</t>
+  </si>
+  <si>
+    <t>lcfrancisco_caja</t>
+  </si>
+  <si>
+    <t>bcgregorio_caja</t>
+  </si>
+  <si>
+    <t>vpwalter_caja, ptfilomeno_caja, hgfeliciano_caja, aobenito_caja</t>
+  </si>
+  <si>
+    <t>tmenma_caja, ffoctavio_caja, qlcarlos_caja, bcvictor_caja</t>
+  </si>
+  <si>
+    <t>pvmarciana_caja, vateofila_caja, arisaac_caja, jafrancisco_caja</t>
+  </si>
+  <si>
+    <t>cmrosa_caja, ormacelino_caja, cssocorro_caja, cojulio_caja</t>
+  </si>
+  <si>
+    <t>alnemesio_caja, hafrancisco_caja, lcfrancisco_caja, bcgregorio_caja</t>
+  </si>
+  <si>
+    <t>JURADO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DEL POZO</t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
+    <t>VALDIVIA</t>
+  </si>
+  <si>
+    <t>PALOMINO</t>
+  </si>
+  <si>
+    <t>HUARANCCAY</t>
+  </si>
+  <si>
+    <t>ALBITES</t>
+  </si>
+  <si>
+    <t>TINEO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>BRINGAS</t>
+  </si>
+  <si>
+    <t>PILLACA</t>
+  </si>
+  <si>
+    <t>VALENZUELA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>JANAMPA</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>CONGA</t>
+  </si>
+  <si>
+    <t>ALLCCA</t>
+  </si>
+  <si>
+    <t>HUARI</t>
+  </si>
+  <si>
+    <t>LAVIO</t>
+  </si>
+  <si>
+    <t>BERROCAL</t>
+  </si>
+  <si>
+    <t>YARANGA</t>
+  </si>
+  <si>
+    <t>ESPINO</t>
+  </si>
+  <si>
+    <t>MITMA</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>CHACON</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>LLACCTAHUAMAN</t>
+  </si>
+  <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>AMARO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>AUQUI</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>ALFARO</t>
+  </si>
+  <si>
+    <t>CONDE</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>ZAGA</t>
+  </si>
+  <si>
+    <t>LANDA</t>
+  </si>
+  <si>
+    <t>CHUMBILE</t>
+  </si>
+  <si>
+    <t>AVILES</t>
+  </si>
+  <si>
+    <t>Carmen Lucrecia</t>
+  </si>
+  <si>
+    <t>Petronila Victoria</t>
+  </si>
+  <si>
+    <t>Yrene</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Walter Hermenegildo</t>
+  </si>
+  <si>
+    <t>Filomeno</t>
+  </si>
+  <si>
+    <t>Feliciano</t>
+  </si>
+  <si>
+    <t>Benito</t>
+  </si>
+  <si>
+    <t>Enma Maria Jesus</t>
+  </si>
+  <si>
+    <t>Octavio</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Victor Raul</t>
+  </si>
+  <si>
+    <t>Marciana Julia</t>
+  </si>
+  <si>
+    <t>Teofila Victoria</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Rosa M. A</t>
+  </si>
+  <si>
+    <t>Marcelino</t>
+  </si>
+  <si>
+    <t>Socorro Luz</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Nemesio</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
+    <t>Bertha Celina</t>
+  </si>
+  <si>
+    <t>Juan Domingo</t>
+  </si>
+  <si>
+    <t>Mamerto</t>
+  </si>
+  <si>
+    <t>Fausto</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TIPO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>NUMERO_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>APELLIDO_PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO_MATERNO</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Cajero</t>
+  </si>
+  <si>
+    <t>Caja01</t>
+  </si>
+  <si>
+    <t>Caja02</t>
+  </si>
+  <si>
+    <t>Caja03</t>
+  </si>
+  <si>
+    <t>Caja04</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
+    <t>Jesus nazareno</t>
+  </si>
+  <si>
+    <t>JEFE_CAJA</t>
+  </si>
+  <si>
+    <t>pvmarciana</t>
+  </si>
+  <si>
+    <t>Jefe_caja</t>
+  </si>
+  <si>
+    <t>28212199</t>
+  </si>
+  <si>
+    <t>28213768</t>
+  </si>
+  <si>
+    <t>28200766</t>
+  </si>
+  <si>
+    <t>28214821</t>
+  </si>
+  <si>
+    <t>28237806</t>
+  </si>
+  <si>
+    <t>28269111</t>
+  </si>
+  <si>
+    <t>28213753</t>
+  </si>
+  <si>
+    <t>28202338</t>
+  </si>
+  <si>
+    <t>28205601</t>
+  </si>
+  <si>
+    <t>28235769</t>
+  </si>
+  <si>
+    <t>28289835</t>
+  </si>
+  <si>
+    <t>28262098</t>
+  </si>
+  <si>
+    <t>28207191</t>
+  </si>
+  <si>
+    <t>21092365</t>
+  </si>
+  <si>
+    <t>09181356</t>
+  </si>
+  <si>
+    <t>28215545</t>
+  </si>
+  <si>
+    <t>28223351</t>
+  </si>
+  <si>
+    <t>23697235</t>
+  </si>
+  <si>
+    <t>28237294</t>
+  </si>
+  <si>
+    <t>28201392</t>
+  </si>
+  <si>
+    <t>28236387</t>
+  </si>
+  <si>
+    <t>28291967</t>
+  </si>
+  <si>
+    <t>28220014</t>
+  </si>
+  <si>
+    <t>28206070</t>
+  </si>
+  <si>
+    <t>28218966</t>
+  </si>
+  <si>
+    <t>28216370</t>
+  </si>
+  <si>
+    <t>00123520</t>
+  </si>
+  <si>
+    <t>28268159</t>
+  </si>
+  <si>
+    <t>80499976</t>
+  </si>
+  <si>
+    <t>28312414</t>
+  </si>
+  <si>
+    <t>41293587</t>
+  </si>
+  <si>
+    <t>80365056</t>
+  </si>
+  <si>
+    <t>28288536</t>
+  </si>
+  <si>
+    <t>10468407</t>
+  </si>
+  <si>
+    <t>28302819</t>
+  </si>
+  <si>
+    <t>40839257</t>
+  </si>
+  <si>
+    <t>40208005</t>
+  </si>
+  <si>
+    <t>28315991</t>
+  </si>
+  <si>
+    <t>28317407</t>
+  </si>
+  <si>
+    <t>ANAYA</t>
+  </si>
+  <si>
+    <t>CURIHUAMAN</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>HUAMANI</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>NAJARRO</t>
+  </si>
+  <si>
+    <t>ORIUNDO</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>ROSADO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CERDA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ATAUPILLCO</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>THARWIN HUBERT</t>
+  </si>
+  <si>
+    <t>TEOFILO</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>WILBER</t>
+  </si>
+  <si>
+    <t>ARTEMIO</t>
+  </si>
+  <si>
+    <t>FREDY</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>Administrador general</t>
+  </si>
+  <si>
+    <t>Gerente general</t>
+  </si>
+  <si>
+    <t>yzbertha_plataforma</t>
+  </si>
+  <si>
+    <t>eljuan_plataforma</t>
+  </si>
+  <si>
+    <t>mcmamerto_plataforma</t>
+  </si>
+  <si>
+    <t>aafausto_plataforma</t>
+  </si>
+  <si>
+    <t>avtharwin_plataforma</t>
+  </si>
+  <si>
+    <t>cfteofilo_plataforma</t>
+  </si>
+  <si>
+    <t>dcedgar_administrador</t>
+  </si>
+  <si>
+    <t>hrgerardo_administrador</t>
+  </si>
+  <si>
+    <t>mqhector_administrador</t>
+  </si>
+  <si>
+    <t>mawilber_administrador</t>
+  </si>
+  <si>
+    <t>ngartemio_administrador</t>
+  </si>
+  <si>
+    <t>oqfredy_administrador</t>
+  </si>
+  <si>
+    <t>pgarturo_administradorgeneral</t>
+  </si>
+  <si>
+    <t>rqdavid_administradorgeneral</t>
+  </si>
+  <si>
+    <t>rgjorge_gerentegeneral</t>
   </si>
 </sst>
 </file>
@@ -142,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -202,15 +849,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,9 +893,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,11 +903,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -292,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I30"/>
+  <dimension ref="C1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,30 +1221,33 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -568,12 +1269,15 @@
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="J7" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -581,33 +1285,45 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="8" t="s">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
+      <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -615,33 +1331,45 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -649,29 +1377,41 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -679,33 +1419,45 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="4" t="s">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -713,33 +1465,45 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="5"/>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="15"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="15"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="D28" s="8" t="s">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
+      <c r="D28" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -747,19 +1511,31 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
@@ -779,4 +1555,1462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Organizacion.xlsx
+++ b/Organizacion.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\GitHub\SistCoopEE_App\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -1202,7 +1207,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1212,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
@@ -1561,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
